--- a/2024 Game Day Info/Week 7_ INDY @ MKE (Sat)/Game Day Packet INDY at MKE.xlsx
+++ b/2024 Game Day Info/Week 7_ INDY @ MKE (Sat)/Game Day Packet INDY at MKE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="525">
   <si>
     <t>Team leaders must effectively communicate with other team leaders regarding travel plans and game times prior to and on game days.</t>
   </si>
@@ -396,6 +396,9 @@
     <t>TEAM</t>
   </si>
   <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -499,6 +502,33 @@
     <t xml:space="preserve">Start March 6th to today(April 3rd) I have consumed 11 bags of Act II popcorn. </t>
   </si>
   <si>
+    <t>Regina Barcio</t>
+  </si>
+  <si>
+    <t>Gina Barcio</t>
+  </si>
+  <si>
+    <t>Gee-nah</t>
+  </si>
+  <si>
+    <t>She/her</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Madison Heist</t>
+  </si>
+  <si>
+    <t>Healthcare IT</t>
+  </si>
+  <si>
+    <t>Playing for 8 years on club teams in Houston/madison, college with Rice University Torque 2016-2020</t>
+  </si>
+  <si>
+    <t>I started playing frisbee because my family plays! My brother (Aaron Barcio) and cousin (Xavier Fuzat) were AUDL Houston Havoc players last year. My dad (Bernie) has been playing for over 20 years along with my aunt, uncles, and cousins.</t>
+  </si>
+  <si>
     <t>Rose Glinka</t>
   </si>
   <si>
@@ -543,9 +573,6 @@
     <t>sid-knee stel-zer</t>
   </si>
   <si>
-    <t>She/her</t>
-  </si>
-  <si>
     <t>1st</t>
   </si>
   <si>
@@ -1028,6 +1055,15 @@
     <t>willing to bet i have the longest duolingo streak in the league (1,490 days as of 4/2/24, sponsor me, duolingo!!!); at one point i could list all 144 episodes of "buffy the vampire slayer" by name in order; ate 53 soup dumplings in 36 hours in shanghai in a soup-dumpling-eating contest with some friends (anna thorn ate 10).</t>
   </si>
   <si>
+    <t>Austin Prucha</t>
+  </si>
+  <si>
+    <t>PRU - KA</t>
+  </si>
+  <si>
+    <t>Prucha never filled this form out :(</t>
+  </si>
+  <si>
     <t>Claire Kelley</t>
   </si>
   <si>
@@ -1061,9 +1097,6 @@
   </si>
   <si>
     <t>Albany, NY</t>
-  </si>
-  <si>
-    <t>Madison Heist</t>
   </si>
   <si>
     <t>Manufacturing Engineer</t>
@@ -1764,9 +1797,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1996,7 +2030,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2154,8 +2188,8 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2194,6 +2228,24 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2206,12 +2258,6 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2221,14 +2267,33 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -2283,14 +2348,8 @@
     <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -10459,7 +10518,9 @@
       <c r="A3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -10477,7 +10538,9 @@
       <c r="A4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="53">
+        <v>45437.0</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -10509,7 +10572,7 @@
     </row>
     <row r="6">
       <c r="A6" s="54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -10527,7 +10590,7 @@
     </row>
     <row r="7">
       <c r="A7" s="54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -10545,7 +10608,7 @@
     </row>
     <row r="8">
       <c r="A8" s="54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -10578,1143 +10641,1210 @@
     </row>
     <row r="10">
       <c r="A10" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" s="58"/>
     </row>
     <row r="11">
       <c r="A11" s="59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J11" s="60" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" s="60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" s="64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" s="65"/>
     </row>
     <row r="12">
       <c r="A12" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
+        <v>134</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="68" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E12" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="F12" s="68">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="70"/>
+      <c r="M12" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="71"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="75">
         <v>5.0</v>
       </c>
-      <c r="F12" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="68" t="s">
+      <c r="F13" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="I13" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="70"/>
+      <c r="M13" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="71"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="K12" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="70"/>
-      <c r="M12" s="71" t="s">
+      <c r="E14" s="75">
+        <v>7.0</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="71"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="75">
+        <v>8.0</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="78">
+        <v>10.0</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16" s="71"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="75">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="N17" s="71"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="78">
+        <v>13.0</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="71"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="75">
+        <v>17.0</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="N19" s="71"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="75">
+        <v>20.0</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="70"/>
+      <c r="N20" s="71"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="80">
+        <v>21.0</v>
+      </c>
+      <c r="F21" s="80">
+        <v>3.0</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="N21" s="84"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="75">
+        <v>22.0</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="I22" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="71"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="75">
+        <v>23.0</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="H23" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="N23" s="71"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="78">
+        <v>24.0</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="78">
+        <v>25.0</v>
+      </c>
+      <c r="F25" s="75">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="I25" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="N25" s="71"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="78">
+        <v>27.0</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="M26" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="N26" s="71"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="75">
+        <v>32.0</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" s="71"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="77" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="75">
+        <v>47.0</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" s="70"/>
+      <c r="M28" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="N28" s="84"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="73"/>
+      <c r="C29" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="75">
+        <v>52.0</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="I29" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="N29" s="71"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" s="78">
+        <v>55.0</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="N30" s="71"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="75">
+        <v>64.0</v>
+      </c>
+      <c r="F31" s="75">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="K31" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="L31" s="76" t="s">
+        <v>294</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="N31" s="71"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="75">
+        <v>72.0</v>
+      </c>
+      <c r="F32" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="I32" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="J32" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="L32" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="N32" s="71"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="69">
+        <v>87.0</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="71"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="75">
+        <v>88.0</v>
+      </c>
+      <c r="F34" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="H34" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" s="76" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="N34" s="71"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="75">
+        <v>97.0</v>
+      </c>
+      <c r="F35" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="N12" s="72"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="69">
-        <v>7.0</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="72"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="73" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="69">
-        <v>8.0</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="72"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="74">
-        <v>10.0</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" s="72"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="69">
-        <v>12.0</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="72"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="74">
-        <v>13.0</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="N17" s="72"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="69">
-        <v>17.0</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="N18" s="72"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="69">
-        <v>20.0</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="J19" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="72"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="74">
-        <v>21.0</v>
-      </c>
-      <c r="F20" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="K20" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="70"/>
-      <c r="M20" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="N20" s="72"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="69">
-        <v>22.0</v>
-      </c>
-      <c r="F21" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="72"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="69">
-        <v>23.0</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="L22" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" s="72"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="74">
-        <v>24.0</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="J23" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="K23" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" s="70"/>
-      <c r="N23" s="72"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="74">
-        <v>25.0</v>
-      </c>
-      <c r="F24" s="69">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="J24" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="N24" s="72"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="74">
-        <v>27.0</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="L25" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="M25" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="N25" s="72"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" s="69">
-        <v>32.0</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="H26" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" s="71" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" s="71" t="s">
-        <v>249</v>
-      </c>
-      <c r="N26" s="72"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="69">
-        <v>47.0</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="I27" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="J27" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="71" t="s">
-        <v>257</v>
-      </c>
-      <c r="N27" s="75"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="69">
-        <v>52.0</v>
-      </c>
-      <c r="F28" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="I28" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="J28" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="L28" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="M28" s="71" t="s">
-        <v>268</v>
-      </c>
-      <c r="N28" s="72"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>272</v>
-      </c>
-      <c r="E29" s="74">
-        <v>55.0</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="H29" s="71" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="J29" s="71" t="s">
-        <v>275</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>276</v>
-      </c>
-      <c r="L29" s="71" t="s">
-        <v>277</v>
-      </c>
-      <c r="M29" s="71" t="s">
-        <v>278</v>
-      </c>
-      <c r="N29" s="72"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="69">
-        <v>64.0</v>
-      </c>
-      <c r="F30" s="69">
-        <v>2.0</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="H30" s="68" t="s">
-        <v>281</v>
-      </c>
-      <c r="I30" s="68" t="s">
-        <v>282</v>
-      </c>
-      <c r="J30" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="K30" s="68" t="s">
-        <v>284</v>
-      </c>
-      <c r="L30" s="71" t="s">
-        <v>285</v>
-      </c>
-      <c r="M30" s="71" t="s">
-        <v>286</v>
-      </c>
-      <c r="N30" s="72"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="69">
-        <v>72.0</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="I31" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="J31" s="68" t="s">
-        <v>292</v>
-      </c>
-      <c r="K31" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="L31" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="M31" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="N31" s="72"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="68" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="69">
-        <v>88.0</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="H32" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="I32" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="K32" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="L32" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="M32" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="N32" s="72"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="69">
-        <v>97.0</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="H33" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="J33" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="K33" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="L33" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="M33" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="N33" s="72"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="69">
+      <c r="J35" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="N35" s="71"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="75">
         <v>99.0</v>
       </c>
-      <c r="F34" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="H34" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="I34" s="68" t="s">
-        <v>316</v>
-      </c>
-      <c r="J34" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="K34" s="68" t="s">
-        <v>318</v>
-      </c>
-      <c r="L34" s="71" t="s">
-        <v>319</v>
-      </c>
-      <c r="M34" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="N34" s="72"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="77"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="72"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="77"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="72"/>
+      <c r="F36" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="H36" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="N36" s="71"/>
     </row>
     <row r="37">
-      <c r="A37" s="59"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="84"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="71"/>
     </row>
     <row r="38">
-      <c r="A38" s="75"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="59"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="84"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="71"/>
     </row>
     <row r="39">
       <c r="A39" s="59"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="84"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="95"/>
     </row>
     <row r="40">
-      <c r="A40" s="75"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="84"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="95"/>
     </row>
     <row r="41">
       <c r="A41" s="59"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="84"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="95"/>
     </row>
     <row r="42">
-      <c r="A42" s="75"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="84"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="95"/>
     </row>
     <row r="43">
-      <c r="A43" s="75"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="84"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95"/>
     </row>
     <row r="44">
-      <c r="A44" s="75"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="94"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="84"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
+      <c r="K45" s="94"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="84"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F33:M33"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3">
@@ -11747,7 +11877,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -11784,7 +11914,7 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -11821,43 +11951,43 @@
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="85">
+        <v>334</v>
+      </c>
+      <c r="B3" s="96">
         <v>0.7083333333333334</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
     </row>
     <row r="4" ht="5.25" customHeight="1">
       <c r="A4" s="35"/>
@@ -11896,17 +12026,17 @@
       <c r="AH4" s="35"/>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="88"/>
+      <c r="A5" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="99"/>
     </row>
     <row r="6">
-      <c r="A6" s="89" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>326</v>
+      <c r="A6" s="100" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="7" ht="5.25" customHeight="1">
@@ -11915,38 +12045,38 @@
     </row>
     <row r="8">
       <c r="A8" s="36" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>328</v>
+      <c r="B9" s="102" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>329</v>
+      <c r="B10" s="102" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="91">
+        <v>341</v>
+      </c>
+      <c r="B11" s="102">
         <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="91">
+        <v>342</v>
+      </c>
+      <c r="B12" s="102">
         <v>3.0</v>
       </c>
     </row>
@@ -11962,150 +12092,150 @@
     <row r="15">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
+      <c r="T15" s="103"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
     </row>
     <row r="16">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
+      <c r="T16" s="103"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
     </row>
     <row r="17">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="103"/>
+      <c r="T17" s="103"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
     </row>
     <row r="18">
-      <c r="A18" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="94" t="s">
-        <v>332</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="F18" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="94" t="s">
+      <c r="F18" s="105" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="I18" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="J18" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="94" t="s">
+      <c r="H18" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="105" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="94" t="s">
+      <c r="K18" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="94" t="s">
+      <c r="L18" s="105" t="s">
         <v>121</v>
+      </c>
+      <c r="M18" s="105" t="s">
+        <v>122</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
@@ -12130,44 +12260,44 @@
       <c r="AH18" s="40"/>
     </row>
     <row r="19">
-      <c r="A19" s="76" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="95">
+      <c r="A19" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="106">
         <v>2.0</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="E19" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="H19" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="I19" s="95" t="s">
-        <v>340</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>342</v>
-      </c>
-      <c r="L19" s="95" t="s">
-        <v>343</v>
-      </c>
-      <c r="M19" s="95" t="s">
-        <v>344</v>
+      <c r="C19" s="106" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>352</v>
+      </c>
+      <c r="K19" s="106" t="s">
+        <v>353</v>
+      </c>
+      <c r="L19" s="106" t="s">
+        <v>354</v>
+      </c>
+      <c r="M19" s="106" t="s">
+        <v>355</v>
       </c>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
@@ -12192,42 +12322,42 @@
       <c r="AH19" s="40"/>
     </row>
     <row r="20">
-      <c r="A20" s="76" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="95">
+      <c r="A20" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="B20" s="106">
         <v>3.0</v>
       </c>
-      <c r="C20" s="95" t="s">
-        <v>346</v>
+      <c r="C20" s="106" t="s">
+        <v>357</v>
       </c>
       <c r="D20" s="70"/>
-      <c r="E20" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="95" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="95" t="s">
-        <v>348</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="K20" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="L20" s="95" t="s">
-        <v>351</v>
-      </c>
-      <c r="M20" s="95" t="s">
-        <v>352</v>
+      <c r="E20" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="106" t="s">
+        <v>358</v>
+      </c>
+      <c r="H20" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="106" t="s">
+        <v>359</v>
+      </c>
+      <c r="J20" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="K20" s="106" t="s">
+        <v>361</v>
+      </c>
+      <c r="L20" s="106" t="s">
+        <v>362</v>
+      </c>
+      <c r="M20" s="106" t="s">
+        <v>363</v>
       </c>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
@@ -12252,44 +12382,44 @@
       <c r="AH20" s="40"/>
     </row>
     <row r="21">
-      <c r="A21" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" s="97">
+      <c r="A21" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="107">
         <v>8.0</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>354</v>
-      </c>
-      <c r="E21" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="97" t="s">
-        <v>355</v>
-      </c>
-      <c r="H21" s="97" t="s">
-        <v>356</v>
-      </c>
-      <c r="I21" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="J21" s="97" t="s">
-        <v>358</v>
-      </c>
-      <c r="K21" s="97" t="s">
-        <v>359</v>
-      </c>
-      <c r="L21" s="97" t="s">
-        <v>360</v>
-      </c>
-      <c r="M21" s="97" t="s">
-        <v>361</v>
+      <c r="C21" s="107" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="107" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="107" t="s">
+        <v>367</v>
+      </c>
+      <c r="I21" s="107" t="s">
+        <v>368</v>
+      </c>
+      <c r="J21" s="107" t="s">
+        <v>369</v>
+      </c>
+      <c r="K21" s="107" t="s">
+        <v>370</v>
+      </c>
+      <c r="L21" s="107" t="s">
+        <v>371</v>
+      </c>
+      <c r="M21" s="107" t="s">
+        <v>372</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
@@ -12314,44 +12444,44 @@
       <c r="AH21" s="40"/>
     </row>
     <row r="22">
-      <c r="A22" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="95">
+      <c r="A22" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="106">
         <v>6.0</v>
       </c>
-      <c r="C22" s="95" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="95" t="s">
-        <v>364</v>
-      </c>
-      <c r="H22" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="95" t="s">
-        <v>365</v>
-      </c>
-      <c r="J22" s="95" t="s">
-        <v>366</v>
-      </c>
-      <c r="K22" s="95" t="s">
-        <v>367</v>
-      </c>
-      <c r="L22" s="95" t="s">
-        <v>368</v>
-      </c>
-      <c r="M22" s="95" t="s">
-        <v>369</v>
+      <c r="C22" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="J22" s="106" t="s">
+        <v>377</v>
+      </c>
+      <c r="K22" s="106" t="s">
+        <v>378</v>
+      </c>
+      <c r="L22" s="106" t="s">
+        <v>379</v>
+      </c>
+      <c r="M22" s="106" t="s">
+        <v>380</v>
       </c>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
@@ -12376,42 +12506,42 @@
       <c r="AH22" s="40"/>
     </row>
     <row r="23">
-      <c r="A23" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="95">
+      <c r="A23" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B23" s="106">
         <v>14.0</v>
       </c>
-      <c r="C23" s="95" t="s">
-        <v>328</v>
+      <c r="C23" s="106" t="s">
+        <v>339</v>
       </c>
       <c r="D23" s="70"/>
-      <c r="E23" s="95" t="s">
-        <v>371</v>
-      </c>
-      <c r="F23" s="95" t="s">
-        <v>372</v>
-      </c>
-      <c r="G23" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="H23" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="I23" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="J23" s="95" t="s">
-        <v>374</v>
-      </c>
-      <c r="K23" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="L23" s="95" t="s">
-        <v>376</v>
-      </c>
-      <c r="M23" s="95" t="s">
-        <v>377</v>
+      <c r="E23" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="J23" s="106" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" s="106" t="s">
+        <v>386</v>
+      </c>
+      <c r="L23" s="106" t="s">
+        <v>387</v>
+      </c>
+      <c r="M23" s="106" t="s">
+        <v>388</v>
       </c>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
@@ -12436,42 +12566,42 @@
       <c r="AH23" s="40"/>
     </row>
     <row r="24">
-      <c r="A24" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" s="95">
+      <c r="A24" s="85" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="106">
         <v>16.0</v>
       </c>
-      <c r="C24" s="95" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F24" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="95" t="s">
-        <v>380</v>
-      </c>
-      <c r="H24" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="I24" s="95" t="s">
-        <v>381</v>
+      <c r="C24" s="106" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>391</v>
+      </c>
+      <c r="H24" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>392</v>
       </c>
       <c r="J24" s="70"/>
-      <c r="K24" s="95" t="s">
-        <v>382</v>
-      </c>
-      <c r="L24" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="M24" s="95" t="s">
-        <v>384</v>
+      <c r="K24" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="L24" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="M24" s="106" t="s">
+        <v>395</v>
       </c>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
@@ -12496,41 +12626,41 @@
       <c r="AH24" s="40"/>
     </row>
     <row r="25">
-      <c r="A25" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="95">
+      <c r="A25" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="106">
         <v>20.0</v>
       </c>
-      <c r="C25" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="95" t="s">
-        <v>387</v>
-      </c>
-      <c r="H25" s="95" t="s">
-        <v>388</v>
-      </c>
-      <c r="I25" s="95" t="s">
-        <v>389</v>
-      </c>
-      <c r="J25" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="K25" s="95" t="s">
-        <v>391</v>
-      </c>
-      <c r="L25" s="95" t="s">
-        <v>392</v>
+      <c r="C25" s="106" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>398</v>
+      </c>
+      <c r="H25" s="106" t="s">
+        <v>399</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>400</v>
+      </c>
+      <c r="J25" s="106" t="s">
+        <v>401</v>
+      </c>
+      <c r="K25" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="L25" s="106" t="s">
+        <v>403</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="40"/>
@@ -12556,44 +12686,44 @@
       <c r="AH25" s="40"/>
     </row>
     <row r="26">
-      <c r="A26" s="76" t="s">
-        <v>393</v>
-      </c>
-      <c r="B26" s="95">
+      <c r="A26" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="106">
         <v>21.0</v>
       </c>
-      <c r="C26" s="95" t="s">
-        <v>394</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" s="95" t="s">
-        <v>396</v>
-      </c>
-      <c r="F26" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="H26" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="95" t="s">
-        <v>398</v>
-      </c>
-      <c r="J26" s="95" t="s">
-        <v>399</v>
-      </c>
-      <c r="K26" s="95" t="s">
-        <v>400</v>
-      </c>
-      <c r="L26" s="95" t="s">
-        <v>401</v>
-      </c>
-      <c r="M26" s="95" t="s">
-        <v>402</v>
+      <c r="C26" s="106" t="s">
+        <v>405</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>408</v>
+      </c>
+      <c r="H26" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="J26" s="106" t="s">
+        <v>410</v>
+      </c>
+      <c r="K26" s="106" t="s">
+        <v>411</v>
+      </c>
+      <c r="L26" s="106" t="s">
+        <v>412</v>
+      </c>
+      <c r="M26" s="106" t="s">
+        <v>413</v>
       </c>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
@@ -12618,44 +12748,44 @@
       <c r="AH26" s="40"/>
     </row>
     <row r="27">
-      <c r="A27" s="76" t="s">
-        <v>403</v>
-      </c>
-      <c r="B27" s="95">
+      <c r="A27" s="85" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" s="106">
         <v>22.0</v>
       </c>
-      <c r="C27" s="95" t="s">
-        <v>403</v>
-      </c>
-      <c r="D27" s="95" t="s">
-        <v>404</v>
-      </c>
-      <c r="E27" s="95" t="s">
-        <v>405</v>
-      </c>
-      <c r="F27" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="95" t="s">
-        <v>406</v>
-      </c>
-      <c r="H27" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="I27" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="J27" s="95" t="s">
-        <v>407</v>
-      </c>
-      <c r="K27" s="95" t="s">
-        <v>408</v>
-      </c>
-      <c r="L27" s="95" t="s">
-        <v>409</v>
-      </c>
-      <c r="M27" s="95" t="s">
-        <v>410</v>
+      <c r="C27" s="106" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>417</v>
+      </c>
+      <c r="H27" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="K27" s="106" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="M27" s="106" t="s">
+        <v>421</v>
       </c>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
@@ -12680,44 +12810,44 @@
       <c r="AH27" s="40"/>
     </row>
     <row r="28">
-      <c r="A28" s="76" t="s">
-        <v>411</v>
-      </c>
-      <c r="B28" s="95">
+      <c r="A28" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" s="106">
         <v>23.0</v>
       </c>
-      <c r="C28" s="95" t="s">
-        <v>412</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="95" t="s">
-        <v>414</v>
-      </c>
-      <c r="H28" s="95" t="s">
-        <v>415</v>
-      </c>
-      <c r="I28" s="95" t="s">
-        <v>416</v>
-      </c>
-      <c r="J28" s="95" t="s">
-        <v>417</v>
-      </c>
-      <c r="K28" s="95" t="s">
-        <v>418</v>
-      </c>
-      <c r="L28" s="95" t="s">
-        <v>419</v>
-      </c>
-      <c r="M28" s="95" t="s">
-        <v>420</v>
+      <c r="C28" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="I28" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="J28" s="106" t="s">
+        <v>428</v>
+      </c>
+      <c r="K28" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="L28" s="106" t="s">
+        <v>430</v>
+      </c>
+      <c r="M28" s="106" t="s">
+        <v>431</v>
       </c>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
@@ -12742,41 +12872,41 @@
       <c r="AH28" s="40"/>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="B29" s="95">
+      <c r="A29" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="106">
         <v>24.0</v>
       </c>
-      <c r="C29" s="95" t="s">
-        <v>421</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="I29" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="J29" s="95" t="s">
-        <v>425</v>
-      </c>
-      <c r="K29" s="95" t="s">
-        <v>426</v>
-      </c>
-      <c r="L29" s="95" t="s">
-        <v>427</v>
+      <c r="C29" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="J29" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="L29" s="106" t="s">
+        <v>438</v>
       </c>
       <c r="M29" s="70"/>
       <c r="N29" s="40"/>
@@ -12802,44 +12932,44 @@
       <c r="AH29" s="40"/>
     </row>
     <row r="30">
-      <c r="A30" s="76" t="s">
-        <v>428</v>
-      </c>
-      <c r="B30" s="95">
+      <c r="A30" s="85" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="106">
         <v>29.0</v>
       </c>
-      <c r="C30" s="95" t="s">
-        <v>428</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>429</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="G30" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="H30" s="95" t="s">
-        <v>431</v>
-      </c>
-      <c r="I30" s="95" t="s">
-        <v>432</v>
-      </c>
-      <c r="J30" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="K30" s="95" t="s">
+      <c r="C30" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="G30" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="L30" s="95" t="s">
-        <v>435</v>
-      </c>
-      <c r="M30" s="95" t="s">
-        <v>436</v>
+      <c r="H30" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="J30" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="K30" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="L30" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="M30" s="106" t="s">
+        <v>447</v>
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
@@ -12864,44 +12994,44 @@
       <c r="AH30" s="40"/>
     </row>
     <row r="31">
-      <c r="A31" s="76" t="s">
-        <v>437</v>
-      </c>
-      <c r="B31" s="95">
+      <c r="A31" s="85" t="s">
+        <v>448</v>
+      </c>
+      <c r="B31" s="106">
         <v>33.0</v>
       </c>
-      <c r="C31" s="95" t="s">
-        <v>438</v>
-      </c>
-      <c r="D31" s="95" t="s">
-        <v>439</v>
-      </c>
-      <c r="E31" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="95" t="s">
-        <v>440</v>
-      </c>
-      <c r="H31" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="95" t="s">
-        <v>424</v>
-      </c>
-      <c r="J31" s="95" t="s">
-        <v>441</v>
-      </c>
-      <c r="K31" s="95" t="s">
-        <v>442</v>
-      </c>
-      <c r="L31" s="95" t="s">
-        <v>443</v>
-      </c>
-      <c r="M31" s="95" t="s">
-        <v>444</v>
+      <c r="C31" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="106" t="s">
+        <v>451</v>
+      </c>
+      <c r="H31" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="I31" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="J31" s="106" t="s">
+        <v>452</v>
+      </c>
+      <c r="K31" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="L31" s="106" t="s">
+        <v>454</v>
+      </c>
+      <c r="M31" s="106" t="s">
+        <v>455</v>
       </c>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
@@ -12926,44 +13056,44 @@
       <c r="AH31" s="40"/>
     </row>
     <row r="32">
-      <c r="A32" s="76" t="s">
-        <v>445</v>
-      </c>
-      <c r="B32" s="95">
+      <c r="A32" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="B32" s="106">
         <v>34.0</v>
       </c>
-      <c r="C32" s="95" t="s">
-        <v>445</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="E32" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="H32" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="I32" s="95" t="s">
-        <v>447</v>
-      </c>
-      <c r="J32" s="95" t="s">
-        <v>448</v>
-      </c>
-      <c r="K32" s="95" t="s">
-        <v>449</v>
-      </c>
-      <c r="L32" s="95" t="s">
-        <v>450</v>
-      </c>
-      <c r="M32" s="95" t="s">
-        <v>451</v>
+      <c r="C32" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" s="106" t="s">
+        <v>458</v>
+      </c>
+      <c r="J32" s="106" t="s">
+        <v>459</v>
+      </c>
+      <c r="K32" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="L32" s="106" t="s">
+        <v>461</v>
+      </c>
+      <c r="M32" s="106" t="s">
+        <v>462</v>
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
@@ -12988,42 +13118,42 @@
       <c r="AH32" s="40"/>
     </row>
     <row r="33">
-      <c r="A33" s="76" t="s">
-        <v>452</v>
-      </c>
-      <c r="B33" s="95">
+      <c r="A33" s="85" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="106">
         <v>40.0</v>
       </c>
-      <c r="C33" s="95" t="s">
-        <v>453</v>
+      <c r="C33" s="106" t="s">
+        <v>464</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="E33" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="95" t="s">
-        <v>454</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>455</v>
-      </c>
-      <c r="I33" s="95" t="s">
-        <v>456</v>
-      </c>
-      <c r="J33" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="L33" s="95" t="s">
-        <v>458</v>
-      </c>
-      <c r="M33" s="95" t="s">
-        <v>459</v>
+      <c r="E33" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="106" t="s">
+        <v>465</v>
+      </c>
+      <c r="H33" s="106" t="s">
+        <v>466</v>
+      </c>
+      <c r="I33" s="106" t="s">
+        <v>467</v>
+      </c>
+      <c r="J33" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="106" t="s">
+        <v>468</v>
+      </c>
+      <c r="L33" s="106" t="s">
+        <v>469</v>
+      </c>
+      <c r="M33" s="106" t="s">
+        <v>470</v>
       </c>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
@@ -13048,44 +13178,44 @@
       <c r="AH33" s="40"/>
     </row>
     <row r="34">
-      <c r="A34" s="76" t="s">
-        <v>460</v>
-      </c>
-      <c r="B34" s="95">
+      <c r="A34" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="B34" s="106">
         <v>66.0</v>
       </c>
-      <c r="C34" s="95" t="s">
-        <v>460</v>
-      </c>
-      <c r="D34" s="95" t="s">
-        <v>461</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" s="95" t="s">
-        <v>430</v>
-      </c>
-      <c r="G34" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="H34" s="95" t="s">
-        <v>462</v>
-      </c>
-      <c r="I34" s="95" t="s">
-        <v>463</v>
-      </c>
-      <c r="J34" s="95" t="s">
-        <v>464</v>
-      </c>
-      <c r="K34" s="95" t="s">
-        <v>465</v>
-      </c>
-      <c r="L34" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="M34" s="95" t="s">
-        <v>467</v>
+      <c r="C34" s="106" t="s">
+        <v>471</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>472</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>473</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>473</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="J34" s="106" t="s">
+        <v>475</v>
+      </c>
+      <c r="K34" s="106" t="s">
+        <v>476</v>
+      </c>
+      <c r="L34" s="106" t="s">
+        <v>477</v>
+      </c>
+      <c r="M34" s="106" t="s">
+        <v>478</v>
       </c>
       <c r="N34" s="40"/>
       <c r="O34" s="40"/>
@@ -13110,42 +13240,42 @@
       <c r="AH34" s="40"/>
     </row>
     <row r="35">
-      <c r="A35" s="76" t="s">
-        <v>468</v>
-      </c>
-      <c r="B35" s="95">
+      <c r="A35" s="85" t="s">
+        <v>479</v>
+      </c>
+      <c r="B35" s="106">
         <v>91.0</v>
       </c>
-      <c r="C35" s="95" t="s">
-        <v>469</v>
+      <c r="C35" s="106" t="s">
+        <v>480</v>
       </c>
       <c r="D35" s="70"/>
-      <c r="E35" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="95" t="s">
-        <v>470</v>
-      </c>
-      <c r="H35" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="I35" s="95" t="s">
-        <v>471</v>
-      </c>
-      <c r="J35" s="95" t="s">
-        <v>472</v>
-      </c>
-      <c r="K35" s="95" t="s">
-        <v>473</v>
-      </c>
-      <c r="L35" s="95" t="s">
-        <v>474</v>
-      </c>
-      <c r="M35" s="95" t="s">
-        <v>475</v>
+      <c r="E35" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>481</v>
+      </c>
+      <c r="H35" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="I35" s="106" t="s">
+        <v>482</v>
+      </c>
+      <c r="J35" s="106" t="s">
+        <v>483</v>
+      </c>
+      <c r="K35" s="106" t="s">
+        <v>484</v>
+      </c>
+      <c r="L35" s="106" t="s">
+        <v>485</v>
+      </c>
+      <c r="M35" s="106" t="s">
+        <v>486</v>
       </c>
       <c r="N35" s="40"/>
       <c r="O35" s="40"/>
@@ -13170,44 +13300,44 @@
       <c r="AH35" s="40"/>
     </row>
     <row r="36">
-      <c r="A36" s="76" t="s">
-        <v>476</v>
-      </c>
-      <c r="B36" s="95">
+      <c r="A36" s="85" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36" s="106">
         <v>92.0</v>
       </c>
-      <c r="C36" s="95" t="s">
-        <v>476</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>477</v>
-      </c>
-      <c r="E36" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="95" t="s">
-        <v>478</v>
-      </c>
-      <c r="H36" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="I36" s="95" t="s">
-        <v>381</v>
-      </c>
-      <c r="J36" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="K36" s="95" t="s">
-        <v>480</v>
-      </c>
-      <c r="L36" s="95" t="s">
-        <v>481</v>
-      </c>
-      <c r="M36" s="95" t="s">
-        <v>482</v>
+      <c r="C36" s="106" t="s">
+        <v>487</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>488</v>
+      </c>
+      <c r="E36" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>489</v>
+      </c>
+      <c r="H36" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="I36" s="106" t="s">
+        <v>392</v>
+      </c>
+      <c r="J36" s="106" t="s">
+        <v>490</v>
+      </c>
+      <c r="K36" s="106" t="s">
+        <v>491</v>
+      </c>
+      <c r="L36" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="M36" s="106" t="s">
+        <v>493</v>
       </c>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
@@ -13232,40 +13362,40 @@
       <c r="AH36" s="40"/>
     </row>
     <row r="37">
-      <c r="A37" s="76" t="s">
-        <v>483</v>
+      <c r="A37" s="85" t="s">
+        <v>494</v>
       </c>
       <c r="B37" s="70"/>
-      <c r="C37" s="95" t="s">
-        <v>484</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>485</v>
-      </c>
-      <c r="E37" s="95" t="s">
-        <v>486</v>
-      </c>
-      <c r="F37" s="95" t="s">
-        <v>487</v>
-      </c>
-      <c r="G37" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="H37" s="95" t="s">
-        <v>488</v>
+      <c r="C37" s="106" t="s">
+        <v>495</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="E37" s="106" t="s">
+        <v>497</v>
+      </c>
+      <c r="F37" s="106" t="s">
+        <v>498</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="H37" s="106" t="s">
+        <v>499</v>
       </c>
       <c r="I37" s="70"/>
-      <c r="J37" s="95" t="s">
-        <v>489</v>
-      </c>
-      <c r="K37" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="L37" s="95" t="s">
-        <v>491</v>
-      </c>
-      <c r="M37" s="95" t="s">
-        <v>492</v>
+      <c r="J37" s="106" t="s">
+        <v>500</v>
+      </c>
+      <c r="K37" s="106" t="s">
+        <v>501</v>
+      </c>
+      <c r="L37" s="106" t="s">
+        <v>502</v>
+      </c>
+      <c r="M37" s="106" t="s">
+        <v>503</v>
       </c>
       <c r="N37" s="40"/>
       <c r="O37" s="40"/>
@@ -13290,40 +13420,40 @@
       <c r="AH37" s="40"/>
     </row>
     <row r="38">
-      <c r="A38" s="76" t="s">
-        <v>493</v>
+      <c r="A38" s="85" t="s">
+        <v>504</v>
       </c>
       <c r="B38" s="70"/>
-      <c r="C38" s="95" t="s">
-        <v>494</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>495</v>
-      </c>
-      <c r="E38" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="95" t="s">
-        <v>496</v>
-      </c>
-      <c r="G38" s="95" t="s">
-        <v>497</v>
-      </c>
-      <c r="H38" s="95" t="s">
-        <v>136</v>
+      <c r="C38" s="106" t="s">
+        <v>505</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="106" t="s">
+        <v>507</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>508</v>
+      </c>
+      <c r="H38" s="106" t="s">
+        <v>146</v>
       </c>
       <c r="I38" s="70"/>
-      <c r="J38" s="95" t="s">
-        <v>498</v>
-      </c>
-      <c r="K38" s="95" t="s">
-        <v>499</v>
-      </c>
-      <c r="L38" s="95" t="s">
-        <v>500</v>
-      </c>
-      <c r="M38" s="95" t="s">
-        <v>501</v>
+      <c r="J38" s="106" t="s">
+        <v>509</v>
+      </c>
+      <c r="K38" s="106" t="s">
+        <v>510</v>
+      </c>
+      <c r="L38" s="106" t="s">
+        <v>511</v>
+      </c>
+      <c r="M38" s="106" t="s">
+        <v>512</v>
       </c>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
@@ -13348,42 +13478,42 @@
       <c r="AH38" s="40"/>
     </row>
     <row r="39">
-      <c r="A39" s="76" t="s">
-        <v>502</v>
+      <c r="A39" s="85" t="s">
+        <v>513</v>
       </c>
       <c r="B39" s="70"/>
-      <c r="C39" s="95" t="s">
-        <v>503</v>
-      </c>
-      <c r="D39" s="95" t="s">
-        <v>504</v>
-      </c>
-      <c r="E39" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="95" t="s">
-        <v>505</v>
-      </c>
-      <c r="G39" s="95" t="s">
-        <v>506</v>
-      </c>
-      <c r="H39" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="I39" s="95" t="s">
-        <v>373</v>
-      </c>
-      <c r="J39" s="95" t="s">
-        <v>507</v>
-      </c>
-      <c r="K39" s="95" t="s">
-        <v>508</v>
-      </c>
-      <c r="L39" s="95" t="s">
-        <v>509</v>
-      </c>
-      <c r="M39" s="95" t="s">
-        <v>510</v>
+      <c r="C39" s="106" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="106" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="106" t="s">
+        <v>516</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>517</v>
+      </c>
+      <c r="H39" s="106" t="s">
+        <v>366</v>
+      </c>
+      <c r="I39" s="106" t="s">
+        <v>384</v>
+      </c>
+      <c r="J39" s="106" t="s">
+        <v>518</v>
+      </c>
+      <c r="K39" s="106" t="s">
+        <v>519</v>
+      </c>
+      <c r="L39" s="106" t="s">
+        <v>520</v>
+      </c>
+      <c r="M39" s="106" t="s">
+        <v>521</v>
       </c>
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
@@ -13408,328 +13538,328 @@
       <c r="AH39" s="40"/>
     </row>
     <row r="40">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="92"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="103"/>
+      <c r="U40" s="103"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="103"/>
+      <c r="X40" s="103"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="103"/>
+      <c r="AA40" s="103"/>
+      <c r="AB40" s="103"/>
+      <c r="AC40" s="103"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="103"/>
+      <c r="AF40" s="103"/>
+      <c r="AG40" s="103"/>
+      <c r="AH40" s="103"/>
     </row>
     <row r="41">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="92"/>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="92"/>
-      <c r="AD41" s="92"/>
-      <c r="AE41" s="92"/>
-      <c r="AF41" s="92"/>
-      <c r="AG41" s="92"/>
-      <c r="AH41" s="92"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="103"/>
+      <c r="U41" s="103"/>
+      <c r="V41" s="103"/>
+      <c r="W41" s="103"/>
+      <c r="X41" s="103"/>
+      <c r="Y41" s="103"/>
+      <c r="Z41" s="103"/>
+      <c r="AA41" s="103"/>
+      <c r="AB41" s="103"/>
+      <c r="AC41" s="103"/>
+      <c r="AD41" s="103"/>
+      <c r="AE41" s="103"/>
+      <c r="AF41" s="103"/>
+      <c r="AG41" s="103"/>
+      <c r="AH41" s="103"/>
     </row>
     <row r="42">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="92"/>
-      <c r="AB42" s="92"/>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="92"/>
-      <c r="AE42" s="92"/>
-      <c r="AF42" s="92"/>
-      <c r="AG42" s="92"/>
-      <c r="AH42" s="92"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="103"/>
+      <c r="U42" s="103"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="103"/>
+      <c r="Y42" s="103"/>
+      <c r="Z42" s="103"/>
+      <c r="AA42" s="103"/>
+      <c r="AB42" s="103"/>
+      <c r="AC42" s="103"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="103"/>
+      <c r="AF42" s="103"/>
+      <c r="AG42" s="103"/>
+      <c r="AH42" s="103"/>
     </row>
     <row r="43">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="92"/>
-      <c r="AB43" s="92"/>
-      <c r="AC43" s="92"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="92"/>
-      <c r="AF43" s="92"/>
-      <c r="AG43" s="92"/>
-      <c r="AH43" s="92"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="103"/>
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
+      <c r="V43" s="103"/>
+      <c r="W43" s="103"/>
+      <c r="X43" s="103"/>
+      <c r="Y43" s="103"/>
+      <c r="Z43" s="103"/>
+      <c r="AA43" s="103"/>
+      <c r="AB43" s="103"/>
+      <c r="AC43" s="103"/>
+      <c r="AD43" s="103"/>
+      <c r="AE43" s="103"/>
+      <c r="AF43" s="103"/>
+      <c r="AG43" s="103"/>
+      <c r="AH43" s="103"/>
     </row>
     <row r="44">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="92"/>
-      <c r="AD44" s="92"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="92"/>
-      <c r="AG44" s="92"/>
-      <c r="AH44" s="92"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="103"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="103"/>
+      <c r="R44" s="103"/>
+      <c r="S44" s="103"/>
+      <c r="T44" s="103"/>
+      <c r="U44" s="103"/>
+      <c r="V44" s="103"/>
+      <c r="W44" s="103"/>
+      <c r="X44" s="103"/>
+      <c r="Y44" s="103"/>
+      <c r="Z44" s="103"/>
+      <c r="AA44" s="103"/>
+      <c r="AB44" s="103"/>
+      <c r="AC44" s="103"/>
+      <c r="AD44" s="103"/>
+      <c r="AE44" s="103"/>
+      <c r="AF44" s="103"/>
+      <c r="AG44" s="103"/>
+      <c r="AH44" s="103"/>
     </row>
     <row r="45">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="103"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="103"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="103"/>
+      <c r="U45" s="103"/>
+      <c r="V45" s="103"/>
+      <c r="W45" s="103"/>
+      <c r="X45" s="103"/>
+      <c r="Y45" s="103"/>
+      <c r="Z45" s="103"/>
+      <c r="AA45" s="103"/>
+      <c r="AB45" s="103"/>
+      <c r="AC45" s="103"/>
+      <c r="AD45" s="103"/>
+      <c r="AE45" s="103"/>
+      <c r="AF45" s="103"/>
+      <c r="AG45" s="103"/>
+      <c r="AH45" s="103"/>
     </row>
     <row r="46">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="92"/>
-      <c r="AB46" s="92"/>
-      <c r="AC46" s="92"/>
-      <c r="AD46" s="92"/>
-      <c r="AE46" s="92"/>
-      <c r="AF46" s="92"/>
-      <c r="AG46" s="92"/>
-      <c r="AH46" s="92"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="103"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="103"/>
+      <c r="V46" s="103"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="103"/>
+      <c r="Z46" s="103"/>
+      <c r="AA46" s="103"/>
+      <c r="AB46" s="103"/>
+      <c r="AC46" s="103"/>
+      <c r="AD46" s="103"/>
+      <c r="AE46" s="103"/>
+      <c r="AF46" s="103"/>
+      <c r="AG46" s="103"/>
+      <c r="AH46" s="103"/>
     </row>
     <row r="47">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="92"/>
-      <c r="AH47" s="92"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="103"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="103"/>
+      <c r="S47" s="103"/>
+      <c r="T47" s="103"/>
+      <c r="U47" s="103"/>
+      <c r="V47" s="103"/>
+      <c r="W47" s="103"/>
+      <c r="X47" s="103"/>
+      <c r="Y47" s="103"/>
+      <c r="Z47" s="103"/>
+      <c r="AA47" s="103"/>
+      <c r="AB47" s="103"/>
+      <c r="AC47" s="103"/>
+      <c r="AD47" s="103"/>
+      <c r="AE47" s="103"/>
+      <c r="AF47" s="103"/>
+      <c r="AG47" s="103"/>
+      <c r="AH47" s="103"/>
     </row>
     <row r="48">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="92"/>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-      <c r="AF48" s="92"/>
-      <c r="AG48" s="92"/>
-      <c r="AH48" s="92"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103"/>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="103"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="103"/>
+      <c r="V48" s="103"/>
+      <c r="W48" s="103"/>
+      <c r="X48" s="103"/>
+      <c r="Y48" s="103"/>
+      <c r="Z48" s="103"/>
+      <c r="AA48" s="103"/>
+      <c r="AB48" s="103"/>
+      <c r="AC48" s="103"/>
+      <c r="AD48" s="103"/>
+      <c r="AE48" s="103"/>
+      <c r="AF48" s="103"/>
+      <c r="AG48" s="103"/>
+      <c r="AH48" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13777,538 +13907,538 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="39" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="C2" s="99"/>
+        <v>523</v>
+      </c>
+      <c r="C2" s="108"/>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="99"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="108"/>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="110"/>
     </row>
     <row r="5">
       <c r="A5" s="54"/>
     </row>
     <row r="6">
       <c r="A6" s="54" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" s="57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="59"/>
-      <c r="B11" s="82"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
     </row>
     <row r="12">
       <c r="A12" s="59"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="59"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
     </row>
     <row r="13">
       <c r="A13" s="59"/>
-      <c r="B13" s="82"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="59"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
     </row>
     <row r="14">
       <c r="A14" s="59"/>
-      <c r="B14" s="82"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
     </row>
     <row r="15">
       <c r="A15" s="59"/>
-      <c r="B15" s="82"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="59"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
     </row>
     <row r="16">
       <c r="A16" s="59"/>
-      <c r="B16" s="82"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="59"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
     </row>
     <row r="17">
       <c r="A17" s="59"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
     </row>
     <row r="18">
       <c r="A18" s="59"/>
-      <c r="B18" s="82"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="59"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
     </row>
     <row r="19">
       <c r="A19" s="59"/>
-      <c r="B19" s="82"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="59"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
     </row>
     <row r="20">
       <c r="A20" s="59"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
     </row>
     <row r="21">
       <c r="A21" s="59"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
     </row>
     <row r="22">
       <c r="A22" s="59"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
     </row>
     <row r="23">
       <c r="A23" s="59"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
     </row>
     <row r="24">
       <c r="A24" s="59"/>
-      <c r="B24" s="82"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="59"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
     </row>
     <row r="25">
       <c r="A25" s="59"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
     </row>
     <row r="26">
       <c r="A26" s="59"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
     </row>
     <row r="27">
       <c r="A27" s="59"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
     </row>
     <row r="28">
       <c r="A28" s="59"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="29">
       <c r="A29" s="59"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
     </row>
     <row r="30">
       <c r="A30" s="59"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
     </row>
     <row r="31">
       <c r="A31" s="59"/>
-      <c r="B31" s="82"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="59"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
     </row>
     <row r="32">
-      <c r="A32" s="75"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="59"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
     </row>
     <row r="33">
       <c r="A33" s="59"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
     </row>
     <row r="34">
-      <c r="A34" s="75"/>
-      <c r="B34" s="83"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="59"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
     </row>
     <row r="35">
       <c r="A35" s="59"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
     </row>
     <row r="36">
-      <c r="A36" s="75"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
     </row>
     <row r="37">
       <c r="A37" s="59"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
     </row>
     <row r="38">
-      <c r="A38" s="75"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
     </row>
     <row r="39">
-      <c r="A39" s="75"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
     </row>
     <row r="40">
-      <c r="A40" s="75"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="94"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
